--- a/db_feed/DPPDTT/Sample_Templates/Sample 2/Sample_2.xlsx
+++ b/db_feed/DPPDTT/Sample_Templates/Sample 2/Sample_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulvenkatesh/Desktop/Github/ofet-db/db_feed/DPPDTT/Sample_Templates/Sample 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCB4209-05E3-6A4E-87D0-A0F7B76CDAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4185C5-2ECC-B443-B012-8D496B2B4A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2020" yWindow="480" windowWidth="25600" windowHeight="14900" firstSheet="1" activeTab="8" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="8700" yWindow="460" windowWidth="25600" windowHeight="14900" firstSheet="1" activeTab="8" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2450,24 +2450,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2494,6 +2476,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2529,15 +2529,15 @@
       <sheetName val="Dropdown Items"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="32">
           <cell r="H32" t="str">
@@ -2922,7 +2922,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2950,10 +2950,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="132" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="7"/>
@@ -3481,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4211,8 +4211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4240,11 +4240,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
@@ -4856,7 +4856,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4883,19 +4883,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:10" ht="130.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5107,10 +5107,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="79"/>
@@ -5119,10 +5119,10 @@
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="130"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="133"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="75" t="s">
@@ -5139,10 +5139,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="133"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="63" t="s">
@@ -5155,10 +5155,10 @@
       <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="63" t="s">
@@ -5169,10 +5169,10 @@
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="63" t="s">
@@ -5185,10 +5185,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="130"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="63" t="s">
@@ -5203,10 +5203,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="63" t="s">
@@ -5221,10 +5221,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="136"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="130"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="63" t="s">
@@ -6106,9 +6106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6129,19 +6129,19 @@
         <v>180</v>
       </c>
       <c r="E1" s="33"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6300,7 +6300,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -6476,7 +6476,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -6666,7 +6666,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -6838,7 +6838,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="48"/>
@@ -6996,7 +6996,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B51" s="48" t="s">
@@ -7095,7 +7095,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="131" t="s">
         <v>173</v>
       </c>
       <c r="B61" s="48" t="s">
@@ -7164,7 +7164,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D19"/>
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7188,19 +7188,19 @@
       <c r="D1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="46"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7238,10 +7238,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
       <c r="F6" s="63" t="s">
         <v>208</v>
       </c>
@@ -7862,19 +7862,19 @@
         <v>180</v>
       </c>
       <c r="E1" s="33"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -8264,7 +8264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8300,12 +8300,12 @@
         <v>180</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -9273,8 +9273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEZ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9317,20 +9317,20 @@
       <c r="G1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="137"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="132" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
